--- a/1 - Avant Projet/2 - Outils/6 - QQOQCP-C ARC - finir.xlsx
+++ b/1 - Avant Projet/2 - Outils/6 - QQOQCP-C ARC - finir.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>Qui</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Éléments collectés</t>
   </si>
   <si>
-    <t>3 élèves + professeur référend</t>
-  </si>
-  <si>
     <t>IUT et domicile</t>
   </si>
   <si>
@@ -88,6 +85,51 @@
   </si>
   <si>
     <t>CLOTURE</t>
+  </si>
+  <si>
+    <t>3 élèves + professeur référant</t>
+  </si>
+  <si>
+    <t>Fin de S3</t>
+  </si>
+  <si>
+    <t>Fin S4</t>
+  </si>
+  <si>
+    <t>3 mois</t>
+  </si>
+  <si>
+    <t>Colonne1</t>
+  </si>
+  <si>
+    <t>Plusieures versions du jeu</t>
+  </si>
+  <si>
+    <t>Réalisation du livrable</t>
+  </si>
+  <si>
+    <t>Réalisation sur ordinateur avec unity en C#</t>
+  </si>
+  <si>
+    <t>Pour mener à bien le PTUT, et réaliser le livrable</t>
+  </si>
+  <si>
+    <t>1 seul livrable à la fin du S3</t>
+  </si>
+  <si>
+    <t>Compte rendu sur le projet, livrable peaufiné</t>
+  </si>
+  <si>
+    <t>1 seul</t>
+  </si>
+  <si>
+    <t>Livrable est consigné au MOA</t>
+  </si>
+  <si>
+    <t>Clotûre pour rendre le produit fini</t>
+  </si>
+  <si>
+    <t>1 MOA reçoit le livrable</t>
   </si>
 </sst>
 </file>
@@ -132,7 +174,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -143,6 +195,45 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:D7" totalsRowShown="0">
+  <autoFilter ref="A1:D7"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Colonne1"/>
+    <tableColumn id="2" name="Éléments collectés"/>
+    <tableColumn id="3" name="Combien"/>
+    <tableColumn id="4" name="AVANT-PROJET" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A10:D16" totalsRowShown="0">
+  <autoFilter ref="A10:D16"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Colonne1"/>
+    <tableColumn id="2" name="Éléments collectés"/>
+    <tableColumn id="3" name="Combien"/>
+    <tableColumn id="4" name="REALISATION" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A19:D25" totalsRowShown="0">
+  <autoFilter ref="A19:D25"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Colonne1"/>
+    <tableColumn id="2" name="Éléments collectés"/>
+    <tableColumn id="3" name="Combien"/>
+    <tableColumn id="4" name="CLOTURE" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,6 +515,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -431,7 +525,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -439,10 +533,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -451,10 +545,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -463,10 +557,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -475,10 +569,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -487,10 +581,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -499,14 +593,17 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -514,7 +611,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -522,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -534,10 +631,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -546,10 +643,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -558,10 +655,10 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -570,10 +667,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -582,14 +676,17 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
@@ -597,7 +694,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -605,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1"/>
     </row>
@@ -617,10 +714,10 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D21" s="1"/>
     </row>
@@ -629,10 +726,10 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="1"/>
     </row>
@@ -641,10 +738,10 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -653,10 +750,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D24" s="1"/>
     </row>
@@ -665,19 +762,19 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D25" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D1:D7"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="D19:D25"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/1 - Avant Projet/2 - Outils/6 - QQOQCP-C ARC - finir.xlsx
+++ b/1 - Avant Projet/2 - Outils/6 - QQOQCP-C ARC - finir.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>Qui</t>
   </si>
@@ -130,19 +130,27 @@
   </si>
   <si>
     <t>1 MOA reçoit le livrable</t>
+  </si>
+  <si>
+    <t>QQOQCP-C ARC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="8"/>
+      <name val="Roboto Lt"/>
     </font>
   </fonts>
   <fills count="2">
@@ -165,9 +173,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -499,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,12 +780,36 @@
       </c>
       <c r="D25" s="1"/>
     </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A26:D28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="3">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>